--- a/biology/Médecine/Faux_négatif/Faux_négatif.xlsx
+++ b/biology/Médecine/Faux_négatif/Faux_négatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux_n%C3%A9gatif</t>
+          <t>Faux_négatif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dans le domaine des statistiques, un test est dit positif s'il détecte ce pour quoi il est conçu (une bactérie, un virus, un parasite en biologie, un spam en informatique…) et négatif s'il ne le détecte pas.
 On parle de faux positif (test positif à tort) ou de faux négatif (test négatif à tort) quand le résultat du test est contraire à la réalité/vérité. Un test est donc faux négatif s'il indique un résultat négatif, alors que le fait étudié correspond à un cas positif.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux_n%C3%A9gatif</t>
+          <t>Faux_négatif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,53 @@
           <t>Un faux résultat peut avoir diverses origines (en biologie)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mauvais suivi du protocole d'utilisation
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>mauvais suivi du protocole d'utilisation
 réactifs ou test trop ancien, ou conservé dans de mauvaises conditions
 échantillon dégradé ou conservé dans de mauvaises conditions
 échantillon "pollué" par une source extérieure à l'échantillon
 la cible du test (virus, bactérie, parasite) peut avoir muté ou être génétiquement ou fonctionnellement assez différente de la souche originale utilisée pour concevoir le test, pour que ce dernier n'y réagisse pas.
 mauvaise qualité du test contenant encore un pourcentage d'erreurs trop élevé (fiabilité trop faible)
-certains tests ne sont simplement pas conçus pour détecter toutes les souches ou certaines souches de pathogènes
-Exemple (grippe aviaire)
-Un cas mortel chinois, rapporté mi-2006 (avec 2 mois de retard) dans la province de Xinjiang, avait fait l’objet d’un faux-négatif lors du test local. Des faux négatifs pourraient faire sous-estimer le nombre de cas réels en Asie. De même, tous les patients ayant des symptômes de grippe aviaire ne sont pas testés, même dans les secteurs touchés par des mortalités brutales de volailles, comme on l’a vu avec le cas groupé familial récent de Garut (Indonésie).
+certains tests ne sont simplement pas conçus pour détecter toutes les souches ou certaines souches de pathogènes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faux_négatif</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_n%C3%A9gatif</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Un faux résultat peut avoir diverses origines (en biologie)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exemple (grippe aviaire)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cas mortel chinois, rapporté mi-2006 (avec 2 mois de retard) dans la province de Xinjiang, avait fait l’objet d’un faux-négatif lors du test local. Des faux négatifs pourraient faire sous-estimer le nombre de cas réels en Asie. De même, tous les patients ayant des symptômes de grippe aviaire ne sont pas testés, même dans les secteurs touchés par des mortalités brutales de volailles, comme on l’a vu avec le cas groupé familial récent de Garut (Indonésie).
 Un faux négatif peut être détecté lors de mise en culture d'organismes issus d'échantillons biologiques ou par l'utilisation d'un autre type de test, plus précis ou fiable.
 Le virus H5N1 de la grippe aviaire est un virus à ARN capable de mutations rapides et importantes. Les fabricants de tests doivent à la fois chercher à cibler des caractères stables de ce virus (dans le cas de la grippe, deux protéines externes H (Hémagglutinine) et N (Neuraminidase) et chercher à identifier les particularités qui le rendent hautement pathogène (HP) ou très contagieux, ce qui doit parfois être fait par deux tests ou méthodes différents. Un premier test (ou épreuve) d'agglutination des globules rouges permet une suspicion de grippe, sans identification du virus, ni certitude qu'il s'agisse de la grippe.
 </t>
